--- a/biology/Microbiologie/Parabasalia/Parabasalia.xlsx
+++ b/biology/Microbiologie/Parabasalia/Parabasalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parabasaliens sont des organismes vivants unicellulaires présentant un noyau. Ils appartiennent donc au taxon des Eucaryotes. Ils sont cependant dépourvus de plastes et de mitochondries, mais certaines cellules présentent des hydrogénosomes, productrices d'énergie, qui seraient des mitochondries modifiées. Les flagelles peuvent être très nombreux (jusqu'à 100000 chez les hypermastigines)
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques propres au groupe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une cinétide comprenant un axostyle, un corps parabasale, et dans sa forme la plus simple trois flagelles antérieurs et un récurrent associé à une membrane ondulante.
 Une structure originale, le corps parabasal, composé de fibres filamenteuses striées associées à l'appareil de Golgi qui lui donne sa structure
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>sous-classe Trichomonadidea
 Trichomonadida
@@ -580,7 +596,9 @@
           <t>Liste d'espèces de Parabasaliens parmi les 350 connues</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Calonympha grassii
 Cthulhu macrofasciculumque
@@ -618,7 +636,9 @@
           <t>Référence bibliographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Classification phylogénétique du vivant par Guillaume Lecointre et Hervé Le Guyader aux éditions Belin
  Portail de la microbiologie                     </t>
